--- a/src/exps.xlsx
+++ b/src/exps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C577320-D65D-C241-87CF-466F4EB4CB72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D7A40-4D93-2D40-A6DF-C4288B96E400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="920" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{553C9F9D-095E-1D4A-8748-D745B18A7915}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>exp</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>vgg11</t>
+  </si>
+  <si>
+    <t>x072800</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +308,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -660,13 +664,13 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -678,7 +682,7 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -701,16 +705,16 @@
       <c r="D2" s="1">
         <v>16</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>100000</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
         <v>10000</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="9">
         <v>0</v>
       </c>
       <c r="I2" s="1">
@@ -733,16 +737,16 @@
       <c r="D3" s="1">
         <v>47</v>
       </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -765,16 +769,16 @@
       <c r="D4" s="1">
         <v>28</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>100000</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>100</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>2</v>
       </c>
       <c r="I4" s="1">
@@ -797,16 +801,16 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
         <v>3</v>
       </c>
       <c r="I5" s="1">
@@ -829,16 +833,16 @@
       <c r="D6" s="1">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>1000</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>100</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>4</v>
       </c>
       <c r="I6" s="1">
@@ -861,16 +865,16 @@
       <c r="D7" s="1">
         <v>99</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>100</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>10</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>5</v>
       </c>
       <c r="I7" s="1">
@@ -893,16 +897,16 @@
       <c r="D8" s="1">
         <v>75</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>100</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>10</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>6</v>
       </c>
       <c r="I8" s="1">
@@ -925,16 +929,16 @@
       <c r="D9" s="1">
         <v>91</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>100</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>10</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>7</v>
       </c>
       <c r="I9" s="1">
@@ -957,16 +961,16 @@
       <c r="D10" s="1">
         <v>173</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>100</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>10</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -989,16 +993,16 @@
       <c r="D11" s="1">
         <v>49</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>100</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>2</v>
       </c>
       <c r="I11" s="1">
@@ -1021,16 +1025,16 @@
       <c r="D12" s="1">
         <v>101</v>
       </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
         <v>3</v>
       </c>
       <c r="I12" s="1">
@@ -1053,16 +1057,16 @@
       <c r="D13" s="1">
         <v>398</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>100</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>10</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>7</v>
       </c>
       <c r="I13" s="1">
@@ -1085,16 +1089,16 @@
       <c r="D14" s="1">
         <v>485</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>100</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>10</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>8</v>
       </c>
       <c r="I14" s="1">
@@ -1117,16 +1121,16 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
         <v>9</v>
       </c>
       <c r="I15" s="1">
@@ -1149,16 +1153,16 @@
       <c r="D16" s="1">
         <v>161</v>
       </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
         <v>4</v>
       </c>
       <c r="I16" s="1">
@@ -1181,16 +1185,16 @@
       <c r="D17" s="1">
         <v>334</v>
       </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
         <v>1</v>
       </c>
       <c r="I17" s="1">
@@ -1225,28 +1229,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1269,16 +1273,16 @@
       <c r="D2">
         <v>173</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
         <v>10</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>4</v>
       </c>
       <c r="I2">
@@ -1295,37 +1299,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F78C82-7877-9940-8ABB-F5E3FD109F8D}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1334,13 +1338,13 @@
       <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1382,6 +1386,47 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>224</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>34</v>
       </c>
     </row>

--- a/src/exps.xlsx
+++ b/src/exps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D7A40-4D93-2D40-A6DF-C4288B96E400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF622038-DE32-1646-BDBE-2B14E3E8D193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="920" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{553C9F9D-095E-1D4A-8748-D745B18A7915}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>exp</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>x072800</t>
+  </si>
+  <si>
+    <t>x081000</t>
+  </si>
+  <si>
+    <t>vgg16</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F78C82-7877-9940-8ABB-F5E3FD109F8D}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1359,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1394,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1428,6 +1434,47 @@
       </c>
       <c r="M3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/exps.xlsx
+++ b/src/exps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/Interpretation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF622038-DE32-1646-BDBE-2B14E3E8D193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCEA1F8-1A52-9C4A-8FB8-2254F94F384D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="920" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{553C9F9D-095E-1D4A-8748-D745B18A7915}"/>
+    <workbookView xWindow="5920" yWindow="1200" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{553C9F9D-095E-1D4A-8748-D745B18A7915}"/>
   </bookViews>
   <sheets>
     <sheet name="ablation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
   <si>
     <t>exp</t>
   </si>
@@ -128,32 +128,170 @@
     <t>re_size</t>
   </si>
   <si>
-    <t>x072550</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
     <t>mnist</t>
   </si>
   <si>
-    <t>vgg11</t>
-  </si>
-  <si>
-    <t>x072800</t>
-  </si>
-  <si>
-    <t>x081000</t>
-  </si>
-  <si>
     <t>vgg16</t>
+  </si>
+  <si>
+    <t>3 </t>
+  </si>
+  <si>
+    <t>38 </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>87 </t>
+  </si>
+  <si>
+    <t>8 </t>
+  </si>
+  <si>
+    <t>90 </t>
+  </si>
+  <si>
+    <t>11 </t>
+  </si>
+  <si>
+    <t>210 </t>
+  </si>
+  <si>
+    <t>13 </t>
+  </si>
+  <si>
+    <t>224 </t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>5 </t>
+  </si>
+  <si>
+    <t>18 </t>
+  </si>
+  <si>
+    <t>431 </t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>75 </t>
+  </si>
+  <si>
+    <t>22 </t>
+  </si>
+  <si>
+    <t>464 </t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>405 </t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>109 </t>
+  </si>
+  <si>
+    <t>29 </t>
+  </si>
+  <si>
+    <t>495 </t>
+  </si>
+  <si>
+    <t>x082000</t>
+  </si>
+  <si>
+    <t>x082001</t>
+  </si>
+  <si>
+    <t>x082002</t>
+  </si>
+  <si>
+    <t>x082003</t>
+  </si>
+  <si>
+    <t>x082004</t>
+  </si>
+  <si>
+    <t>x082005</t>
+  </si>
+  <si>
+    <t>x082006</t>
+  </si>
+  <si>
+    <t>x082007</t>
+  </si>
+  <si>
+    <t>x082008</t>
+  </si>
+  <si>
+    <t>x082009</t>
+  </si>
+  <si>
+    <t>x082010</t>
+  </si>
+  <si>
+    <t>x082011</t>
+  </si>
+  <si>
+    <t>x082012</t>
+  </si>
+  <si>
+    <t>x082100</t>
+  </si>
+  <si>
+    <t>x082101</t>
+  </si>
+  <si>
+    <t>x082102</t>
+  </si>
+  <si>
+    <t>x082103</t>
+  </si>
+  <si>
+    <t>x082104</t>
+  </si>
+  <si>
+    <t>x082105</t>
+  </si>
+  <si>
+    <t>x082106</t>
+  </si>
+  <si>
+    <t>x082107</t>
+  </si>
+  <si>
+    <t>x082108</t>
+  </si>
+  <si>
+    <t>x082109</t>
+  </si>
+  <si>
+    <t>x082110</t>
+  </si>
+  <si>
+    <t>x082111</t>
+  </si>
+  <si>
+    <t>x082112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,8 +326,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +394,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -304,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,13 +1464,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F78C82-7877-9940-8ABB-F5E3FD109F8D}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
@@ -1348,15 +1510,15 @@
         <v>30</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1365,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1377,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1389,36 +1551,36 @@
         <v>224</v>
       </c>
       <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5">
-        <v>100000</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
-        <v>10000</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1430,24 +1592,24 @@
         <v>224</v>
       </c>
       <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1459,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1471,13 +1633,957 @@
         <v>224</v>
       </c>
       <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>224</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>224</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>224</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>224</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>224</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>224</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>224</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>224</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>224</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="E17" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>224</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>224</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/exps.xlsx
+++ b/src/exps.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/Interpretation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCEA1F8-1A52-9C4A-8FB8-2254F94F384D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B4050-5B08-B84C-B92A-65B7C65087B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="1200" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{553C9F9D-095E-1D4A-8748-D745B18A7915}"/>
+    <workbookView xWindow="3260" yWindow="1460" windowWidth="29700" windowHeight="18680" activeTab="4" xr2:uid="{553C9F9D-095E-1D4A-8748-D745B18A7915}"/>
   </bookViews>
   <sheets>
     <sheet name="ablation" sheetId="1" r:id="rId1"/>
     <sheet name="baseline" sheetId="2" r:id="rId2"/>
     <sheet name="baseline_mnist" sheetId="3" r:id="rId3"/>
+    <sheet name="baseline_imagenet" sheetId="4" r:id="rId4"/>
+    <sheet name="ImageNet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="106">
   <si>
     <t>exp</t>
   </si>
@@ -285,6 +287,72 @@
   </si>
   <si>
     <t>x082112</t>
+  </si>
+  <si>
+    <t>x082200</t>
+  </si>
+  <si>
+    <t>x091800</t>
+  </si>
+  <si>
+    <t>ImageNet</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>x091801</t>
+  </si>
+  <si>
+    <t>x091802</t>
+  </si>
+  <si>
+    <t>x091803</t>
+  </si>
+  <si>
+    <t>x091804</t>
+  </si>
+  <si>
+    <t>x091805</t>
+  </si>
+  <si>
+    <t>x091806</t>
+  </si>
+  <si>
+    <t>x091807</t>
+  </si>
+  <si>
+    <t>x091808</t>
+  </si>
+  <si>
+    <t>x091809</t>
+  </si>
+  <si>
+    <t>x091810</t>
+  </si>
+  <si>
+    <t>x091900</t>
+  </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>x091910</t>
+  </si>
+  <si>
+    <t>defensed</t>
+  </si>
+  <si>
+    <t>x092010</t>
   </si>
 </sst>
 </file>
@@ -460,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +561,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1466,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F78C82-7877-9940-8ABB-F5E3FD109F8D}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2586,4 +2656,870 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456F0AB3-BE2B-574A-BF57-BD2E71C58EC7}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDA844F-7F49-BC47-B494-12363935B05E}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>950</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>950</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>224</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>950</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>950</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>224</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>950</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>224</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>950</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>224</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>173</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>950</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>950</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>224</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>485</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>950</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>224</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>950</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>334</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>950</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>950</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>224</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>334</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>950</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>224</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>334</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>950</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>224</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>